--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1339.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1339.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.108579900672357</v>
+        <v>1.140776753425598</v>
       </c>
       <c r="B1">
-        <v>2.602140005427772</v>
+        <v>2.566413640975952</v>
       </c>
       <c r="C1">
-        <v>4.538132849370533</v>
+        <v>9.656722068786621</v>
       </c>
       <c r="D1">
-        <v>2.501764165908159</v>
+        <v>2.145643949508667</v>
       </c>
       <c r="E1">
-        <v>1.19510578041436</v>
+        <v>1.254300236701965</v>
       </c>
     </row>
   </sheetData>
